--- a/01 Datasets/02_processed_data/ses_mntd.xlsx
+++ b/01 Datasets/02_processed_data/ses_mntd.xlsx
@@ -407,19 +407,19 @@
         <v>0.525346283270879</v>
       </c>
       <c r="C2">
-        <v>0.5186966452212347</v>
+        <v>0.5200790191390747</v>
       </c>
       <c r="D2">
-        <v>0.07732665591031883</v>
+        <v>0.08088450613947311</v>
       </c>
       <c r="E2">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F2">
-        <v>0.08599412416536285</v>
+        <v>0.06512080475241608</v>
       </c>
       <c r="G2">
-        <v>0.535</v>
+        <v>0.523</v>
       </c>
       <c r="H2">
         <v>999</v>
@@ -433,19 +433,19 @@
         <v>0.4482184190804692</v>
       </c>
       <c r="C3">
-        <v>0.533098657438655</v>
+        <v>0.5365835051102237</v>
       </c>
       <c r="D3">
-        <v>0.08730833354914466</v>
+        <v>0.08878584504400096</v>
       </c>
       <c r="E3">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F3">
-        <v>-0.9721894223351302</v>
+        <v>-0.995260967398148</v>
       </c>
       <c r="G3">
-        <v>0.176</v>
+        <v>0.17</v>
       </c>
       <c r="H3">
         <v>999</v>
@@ -459,19 +459,19 @@
         <v>0.4599755079358706</v>
       </c>
       <c r="C4">
-        <v>0.4982371676990754</v>
+        <v>0.4940211814001683</v>
       </c>
       <c r="D4">
-        <v>0.07712452634111865</v>
+        <v>0.07147951970718179</v>
       </c>
       <c r="E4">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F4">
-        <v>-0.4961023630015576</v>
+        <v>-0.4762996954059979</v>
       </c>
       <c r="G4">
-        <v>0.311</v>
+        <v>0.331</v>
       </c>
       <c r="H4">
         <v>999</v>
@@ -485,19 +485,19 @@
         <v>0.4317536075367144</v>
       </c>
       <c r="C5">
-        <v>0.5364361923305622</v>
+        <v>0.5347396658253881</v>
       </c>
       <c r="D5">
-        <v>0.08551258682985718</v>
+        <v>0.08730023094417967</v>
       </c>
       <c r="E5">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F5">
-        <v>-1.224177500350127</v>
+        <v>-1.179676813850855</v>
       </c>
       <c r="G5">
-        <v>0.113</v>
+        <v>0.126</v>
       </c>
       <c r="H5">
         <v>999</v>
@@ -511,19 +511,19 @@
         <v>0.4349797837796969</v>
       </c>
       <c r="C6">
-        <v>0.4889984826772609</v>
+        <v>0.4978887056595207</v>
       </c>
       <c r="D6">
-        <v>0.07655563513038022</v>
+        <v>0.0738500080114511</v>
       </c>
       <c r="E6">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="F6">
-        <v>-0.705613620807482</v>
+        <v>-0.8518471909992108</v>
       </c>
       <c r="G6">
-        <v>0.238</v>
+        <v>0.193</v>
       </c>
       <c r="H6">
         <v>999</v>
@@ -537,19 +537,19 @@
         <v>0.4120464346831043</v>
       </c>
       <c r="C7">
-        <v>0.5184045690198191</v>
+        <v>0.5196526252744357</v>
       </c>
       <c r="D7">
-        <v>0.08243274396020533</v>
+        <v>0.07895493964794374</v>
       </c>
       <c r="E7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7">
-        <v>-1.290241343756064</v>
+        <v>-1.36288104418979</v>
       </c>
       <c r="G7">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="H7">
         <v>999</v>
@@ -563,19 +563,19 @@
         <v>0.4623078780214963</v>
       </c>
       <c r="C8">
-        <v>0.5065276341286237</v>
+        <v>0.5058988901851369</v>
       </c>
       <c r="D8">
-        <v>0.078633322896278</v>
+        <v>0.07744981838295309</v>
       </c>
       <c r="E8">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F8">
-        <v>-0.5623539038971536</v>
+        <v>-0.562829107592008</v>
       </c>
       <c r="G8">
-        <v>0.296</v>
+        <v>0.279</v>
       </c>
       <c r="H8">
         <v>999</v>
@@ -583,25 +583,25 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.3981711438050538</v>
+        <v>0.4324886531354248</v>
       </c>
       <c r="C9">
-        <v>0.5336540453828316</v>
+        <v>0.5468055057539951</v>
       </c>
       <c r="D9">
-        <v>0.08881852161595073</v>
+        <v>0.08794967129119742</v>
       </c>
       <c r="E9">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F9">
-        <v>-1.525390190163294</v>
+        <v>-1.299798520452365</v>
       </c>
       <c r="G9">
-        <v>0.067</v>
+        <v>0.098</v>
       </c>
       <c r="H9">
         <v>999</v>
@@ -615,19 +615,19 @@
         <v>0.438727745583551</v>
       </c>
       <c r="C10">
-        <v>0.5437386457272377</v>
+        <v>0.5464407654919524</v>
       </c>
       <c r="D10">
-        <v>0.09145995646331163</v>
+        <v>0.09231949541718498</v>
       </c>
       <c r="E10">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F10">
-        <v>-1.148162586167543</v>
+        <v>-1.16674186120336</v>
       </c>
       <c r="G10">
-        <v>0.122</v>
+        <v>0.133</v>
       </c>
       <c r="H10">
         <v>999</v>
@@ -641,19 +641,19 @@
         <v>0.4024422456675402</v>
       </c>
       <c r="C11">
-        <v>0.5210551593285558</v>
+        <v>0.5178070421545284</v>
       </c>
       <c r="D11">
-        <v>0.08322594157946055</v>
+        <v>0.08410929957326828</v>
       </c>
       <c r="E11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F11">
-        <v>-1.425191609851229</v>
+        <v>-1.371605721035557</v>
       </c>
       <c r="G11">
-        <v>0.08400000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="H11">
         <v>999</v>
@@ -667,19 +667,19 @@
         <v>0.4170486007743614</v>
       </c>
       <c r="C12">
-        <v>0.5194923739646998</v>
+        <v>0.5197312431044149</v>
       </c>
       <c r="D12">
-        <v>0.08082015198870168</v>
+        <v>0.08101947714831174</v>
       </c>
       <c r="E12">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12">
-        <v>-1.267552345170789</v>
+        <v>-1.267382189372635</v>
       </c>
       <c r="G12">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="H12">
         <v>999</v>
@@ -693,19 +693,19 @@
         <v>0.4962725748784731</v>
       </c>
       <c r="C13">
-        <v>0.5342745439873832</v>
+        <v>0.5281983840396711</v>
       </c>
       <c r="D13">
-        <v>0.08830840611199207</v>
+        <v>0.08765178289988437</v>
       </c>
       <c r="E13">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="F13">
-        <v>-0.4303324086805077</v>
+        <v>-0.3642345666563742</v>
       </c>
       <c r="G13">
-        <v>0.323</v>
+        <v>0.367</v>
       </c>
       <c r="H13">
         <v>999</v>
@@ -719,19 +719,19 @@
         <v>0.5303221176051109</v>
       </c>
       <c r="C14">
-        <v>0.5328508703659492</v>
+        <v>0.5266930117213692</v>
       </c>
       <c r="D14">
-        <v>0.08521602549577244</v>
+        <v>0.08414139030781309</v>
       </c>
       <c r="E14">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="F14">
-        <v>-0.02967461514575983</v>
+        <v>0.04313104252812401</v>
       </c>
       <c r="G14">
-        <v>0.473</v>
+        <v>0.518</v>
       </c>
       <c r="H14">
         <v>999</v>
@@ -745,19 +745,19 @@
         <v>0.5341763075289194</v>
       </c>
       <c r="C15">
-        <v>0.5515505081855828</v>
+        <v>0.5494830191674493</v>
       </c>
       <c r="D15">
-        <v>0.09311668962605767</v>
+        <v>0.09234489657866314</v>
       </c>
       <c r="E15">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F15">
-        <v>-0.1865852483205269</v>
+        <v>-0.1657559021195183</v>
       </c>
       <c r="G15">
-        <v>0.426</v>
+        <v>0.429</v>
       </c>
       <c r="H15">
         <v>999</v>
@@ -771,19 +771,19 @@
         <v>0.5589935080632614</v>
       </c>
       <c r="C16">
-        <v>0.650601759352702</v>
+        <v>0.6571703927720932</v>
       </c>
       <c r="D16">
-        <v>0.1369108058225904</v>
+        <v>0.1332770547926576</v>
       </c>
       <c r="E16">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="F16">
-        <v>-0.6691089920845763</v>
+        <v>-0.7366375619686973</v>
       </c>
       <c r="G16">
-        <v>0.257</v>
+        <v>0.23</v>
       </c>
       <c r="H16">
         <v>999</v>
@@ -797,19 +797,19 @@
         <v>0.5310724069614574</v>
       </c>
       <c r="C17">
-        <v>0.6015126772388276</v>
+        <v>0.6059263024935297</v>
       </c>
       <c r="D17">
-        <v>0.1097882753271041</v>
+        <v>0.1125877455783675</v>
       </c>
       <c r="E17">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F17">
-        <v>-0.6416010276826</v>
+        <v>-0.6648494038809022</v>
       </c>
       <c r="G17">
-        <v>0.253</v>
+        <v>0.247</v>
       </c>
       <c r="H17">
         <v>999</v>
@@ -823,19 +823,19 @@
         <v>0.4945887919145911</v>
       </c>
       <c r="C18">
-        <v>0.5796292766240387</v>
+        <v>0.5853650413204901</v>
       </c>
       <c r="D18">
-        <v>0.1020385869852393</v>
+        <v>0.1047339627321168</v>
       </c>
       <c r="E18">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F18">
-        <v>-0.8334149582231024</v>
+        <v>-0.8667317366581634</v>
       </c>
       <c r="G18">
-        <v>0.205</v>
+        <v>0.196</v>
       </c>
       <c r="H18">
         <v>999</v>
@@ -849,19 +849,19 @@
         <v>0.6935949447476699</v>
       </c>
       <c r="C19">
-        <v>0.6342349740268832</v>
+        <v>0.6250840606190003</v>
       </c>
       <c r="D19">
-        <v>0.1223263635011698</v>
+        <v>0.1235259674712114</v>
       </c>
       <c r="E19">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="F19">
-        <v>0.4852590154878512</v>
+        <v>0.5546273834660433</v>
       </c>
       <c r="G19">
-        <v>0.665</v>
+        <v>0.679</v>
       </c>
       <c r="H19">
         <v>999</v>
@@ -869,25 +869,25 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>0.8914645834274354</v>
+        <v>0.910398395693537</v>
       </c>
       <c r="C20">
-        <v>0.7426935167087704</v>
+        <v>0.8156238959347167</v>
       </c>
       <c r="D20">
-        <v>0.1683140110351749</v>
+        <v>0.1819410228193382</v>
       </c>
       <c r="E20">
-        <v>920.5</v>
+        <v>917.5</v>
       </c>
       <c r="F20">
-        <v>0.8838899732926824</v>
+        <v>0.5209078100705655</v>
       </c>
       <c r="G20">
-        <v>0.9205</v>
+        <v>0.9175</v>
       </c>
       <c r="H20">
         <v>999</v>
@@ -901,19 +901,19 @@
         <v>0.5775877892745557</v>
       </c>
       <c r="C21">
-        <v>0.5773649384937496</v>
+        <v>0.5890835362725075</v>
       </c>
       <c r="D21">
-        <v>0.1027078072642426</v>
+        <v>0.1052286650432904</v>
       </c>
       <c r="E21">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="F21">
-        <v>0.002169755023907203</v>
+        <v>-0.1092453942395125</v>
       </c>
       <c r="G21">
-        <v>0.484</v>
+        <v>0.443</v>
       </c>
       <c r="H21">
         <v>999</v>
@@ -921,25 +921,25 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>0.3090057392574837</v>
+        <v>0.2547148615892702</v>
       </c>
       <c r="C22">
-        <v>0.5314593887196083</v>
+        <v>0.54804326705671</v>
       </c>
       <c r="D22">
-        <v>0.08758116166380919</v>
+        <v>0.09287468750668391</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>-2.53997144175867</v>
+        <v>-3.158324548293418</v>
       </c>
       <c r="G22">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="H22">
         <v>999</v>
@@ -953,19 +953,19 @@
         <v>0.4055103398700896</v>
       </c>
       <c r="C23">
-        <v>0.5985462749275868</v>
+        <v>0.600168400961865</v>
       </c>
       <c r="D23">
-        <v>0.1184205875375558</v>
+        <v>0.1090825644338519</v>
       </c>
       <c r="E23">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F23">
-        <v>-1.630087631479434</v>
+        <v>-1.784502061370375</v>
       </c>
       <c r="G23">
-        <v>0.057</v>
+        <v>0.045</v>
       </c>
       <c r="H23">
         <v>999</v>
@@ -979,19 +979,19 @@
         <v>0.6202500648451784</v>
       </c>
       <c r="C24">
-        <v>0.5442210815982684</v>
+        <v>0.5426574153683508</v>
       </c>
       <c r="D24">
-        <v>0.09150056337615083</v>
+        <v>0.09253926886429227</v>
       </c>
       <c r="E24">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="F24">
-        <v>0.8309127336665838</v>
+        <v>0.8384834938626577</v>
       </c>
       <c r="G24">
-        <v>0.784</v>
+        <v>0.793</v>
       </c>
       <c r="H24">
         <v>999</v>
@@ -1005,19 +1005,19 @@
         <v>0.5551313119706411</v>
       </c>
       <c r="C25">
-        <v>0.5315496200281769</v>
+        <v>0.5353885555732265</v>
       </c>
       <c r="D25">
-        <v>0.08393077068458843</v>
+        <v>0.08944498972302231</v>
       </c>
       <c r="E25">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F25">
-        <v>0.2809659883987508</v>
+        <v>0.2207251234367689</v>
       </c>
       <c r="G25">
-        <v>0.593</v>
+        <v>0.58</v>
       </c>
       <c r="H25">
         <v>999</v>
@@ -1031,19 +1031,19 @@
         <v>0.6275157705320422</v>
       </c>
       <c r="C26">
-        <v>0.6933865603426866</v>
+        <v>0.6988527716995985</v>
       </c>
       <c r="D26">
-        <v>0.1517355781494061</v>
+        <v>0.1481069130555343</v>
       </c>
       <c r="E26">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F26">
-        <v>-0.4341156544431848</v>
+        <v>-0.4816588212922085</v>
       </c>
       <c r="G26">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="H26">
         <v>999</v>
@@ -1057,19 +1057,19 @@
         <v>0.4881656124018764</v>
       </c>
       <c r="C27">
-        <v>0.6294657867164133</v>
+        <v>0.6266374010396156</v>
       </c>
       <c r="D27">
-        <v>0.1191629357037902</v>
+        <v>0.1236555813974809</v>
       </c>
       <c r="E27">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F27">
-        <v>-1.185772853614268</v>
+        <v>-1.119818346028659</v>
       </c>
       <c r="G27">
-        <v>0.123</v>
+        <v>0.137</v>
       </c>
       <c r="H27">
         <v>999</v>
@@ -1083,19 +1083,19 @@
         <v>0.5442938259078515</v>
       </c>
       <c r="C28">
-        <v>0.6241857827355577</v>
+        <v>0.632440943561506</v>
       </c>
       <c r="D28">
-        <v>0.1203874024739095</v>
+        <v>0.1264710512167288</v>
       </c>
       <c r="E28">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F28">
-        <v>-0.6636238940782901</v>
+        <v>-0.6969746578811943</v>
       </c>
       <c r="G28">
-        <v>0.256</v>
+        <v>0.242</v>
       </c>
       <c r="H28">
         <v>999</v>
@@ -1109,19 +1109,19 @@
         <v>0.3310305040784767</v>
       </c>
       <c r="C29">
-        <v>0.5335467640543903</v>
+        <v>0.5300393705145984</v>
       </c>
       <c r="D29">
-        <v>0.08717509189946958</v>
+        <v>0.08977652369452982</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F29">
-        <v>-2.323097751470748</v>
+        <v>-2.216713882944072</v>
       </c>
       <c r="G29">
-        <v>0.014</v>
+        <v>0.022</v>
       </c>
       <c r="H29">
         <v>999</v>
@@ -1135,19 +1135,19 @@
         <v>0.4338945773663403</v>
       </c>
       <c r="C30">
-        <v>0.5801921019826779</v>
+        <v>0.5835670134731251</v>
       </c>
       <c r="D30">
-        <v>0.1042048532003995</v>
+        <v>0.1044440365150697</v>
       </c>
       <c r="E30">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F30">
-        <v>-1.403941564362539</v>
+        <v>-1.43303955975686</v>
       </c>
       <c r="G30">
-        <v>0.08799999999999999</v>
+        <v>0.075</v>
       </c>
       <c r="H30">
         <v>999</v>
@@ -1161,19 +1161,19 @@
         <v>0.4969617715527399</v>
       </c>
       <c r="C31">
-        <v>0.5352716632140222</v>
+        <v>0.5330073592071627</v>
       </c>
       <c r="D31">
-        <v>0.08881851822638037</v>
+        <v>0.08649579611655187</v>
       </c>
       <c r="E31">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F31">
-        <v>-0.4313277504094152</v>
+        <v>-0.4167322491124524</v>
       </c>
       <c r="G31">
-        <v>0.338</v>
+        <v>0.346</v>
       </c>
       <c r="H31">
         <v>999</v>
@@ -1187,19 +1187,19 @@
         <v>0.4538439747606218</v>
       </c>
       <c r="C32">
-        <v>0.5637739395392233</v>
+        <v>0.5644768523564163</v>
       </c>
       <c r="D32">
-        <v>0.0990239812405615</v>
+        <v>0.09987298284272689</v>
       </c>
       <c r="E32">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F32">
-        <v>-1.110134771410026</v>
+        <v>-1.107735790469096</v>
       </c>
       <c r="G32">
-        <v>0.133</v>
+        <v>0.137</v>
       </c>
       <c r="H32">
         <v>999</v>
@@ -1213,19 +1213,19 @@
         <v>0.6447843668154645</v>
       </c>
       <c r="C33">
-        <v>0.5805739345861042</v>
+        <v>0.5846380965729655</v>
       </c>
       <c r="D33">
-        <v>0.1011205508400336</v>
+        <v>0.1026471428999396</v>
       </c>
       <c r="E33">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="F33">
-        <v>0.6349889482993147</v>
+        <v>0.5859517229927141</v>
       </c>
       <c r="G33">
-        <v>0.735</v>
+        <v>0.722</v>
       </c>
       <c r="H33">
         <v>999</v>
@@ -1239,16 +1239,16 @@
         <v>0.09054284317662635</v>
       </c>
       <c r="C34">
-        <v>0.7481974462552806</v>
+        <v>0.7481914534851982</v>
       </c>
       <c r="D34">
-        <v>0.1660245102809856</v>
+        <v>0.1684804616338833</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>-3.961189838570324</v>
+        <v>-3.90341173054046</v>
       </c>
       <c r="G34">
         <v>0.001</v>
@@ -1265,16 +1265,16 @@
         <v>0.4289071626814451</v>
       </c>
       <c r="C35">
-        <v>0.6552215531668734</v>
+        <v>0.6592923845279534</v>
       </c>
       <c r="D35">
-        <v>0.1357079397082765</v>
+        <v>0.1355787911427026</v>
       </c>
       <c r="E35">
         <v>60</v>
       </c>
       <c r="F35">
-        <v>-1.667657699114166</v>
+        <v>-1.699271839678949</v>
       </c>
       <c r="G35">
         <v>0.06</v>
@@ -1291,19 +1291,19 @@
         <v>0.4844010438131888</v>
       </c>
       <c r="C36">
-        <v>0.6255443246801649</v>
+        <v>0.6240968594914381</v>
       </c>
       <c r="D36">
-        <v>0.1258419378238543</v>
+        <v>0.1251766442482813</v>
       </c>
       <c r="E36">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F36">
-        <v>-1.121591762712202</v>
+        <v>-1.115989460471315</v>
       </c>
       <c r="G36">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="H36">
         <v>999</v>
@@ -1317,19 +1317,19 @@
         <v>0.4933774886550827</v>
       </c>
       <c r="C37">
-        <v>0.6618037963506109</v>
+        <v>0.6596484395240445</v>
       </c>
       <c r="D37">
-        <v>0.1345486051486955</v>
+        <v>0.1368615832210212</v>
       </c>
       <c r="E37">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F37">
-        <v>-1.251787839118756</v>
+        <v>-1.214884023374527</v>
       </c>
       <c r="G37">
-        <v>0.122</v>
+        <v>0.118</v>
       </c>
       <c r="H37">
         <v>999</v>
@@ -1343,19 +1343,19 @@
         <v>0.27450991152839</v>
       </c>
       <c r="C38">
-        <v>0.6048813312979355</v>
+        <v>0.59792250080947</v>
       </c>
       <c r="D38">
-        <v>0.114406175663162</v>
+        <v>0.1118492617501827</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>-2.887706173679249</v>
+        <v>-2.891504013709342</v>
       </c>
       <c r="G38">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="H38">
         <v>999</v>
@@ -1369,19 +1369,19 @@
         <v>0.5786252329490579</v>
       </c>
       <c r="C39">
-        <v>0.5353263411411512</v>
+        <v>0.5303383250822697</v>
       </c>
       <c r="D39">
-        <v>0.08355220215382993</v>
+        <v>0.08465664862917044</v>
       </c>
       <c r="E39">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="F39">
-        <v>0.5182256205310792</v>
+        <v>0.5703852993083137</v>
       </c>
       <c r="G39">
-        <v>0.6840000000000001</v>
+        <v>0.716</v>
       </c>
       <c r="H39">
         <v>999</v>
@@ -1395,19 +1395,19 @@
         <v>0.536273473232899</v>
       </c>
       <c r="C40">
-        <v>0.5029345275283393</v>
+        <v>0.5079083740595505</v>
       </c>
       <c r="D40">
-        <v>0.07854030354978116</v>
+        <v>0.07830981226753726</v>
       </c>
       <c r="E40">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="F40">
-        <v>0.4244820072974181</v>
+        <v>0.3622164113539453</v>
       </c>
       <c r="G40">
-        <v>0.659</v>
+        <v>0.627</v>
       </c>
       <c r="H40">
         <v>999</v>
@@ -1421,16 +1421,16 @@
         <v>0.3352651759765787</v>
       </c>
       <c r="C41">
-        <v>0.5255859490800792</v>
+        <v>0.5216380407557077</v>
       </c>
       <c r="D41">
-        <v>0.08024496945631075</v>
+        <v>0.07934536016370422</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="F41">
-        <v>-2.37174709384269</v>
+        <v>-2.348881703915732</v>
       </c>
       <c r="G41">
         <v>0.01</v>
@@ -1447,19 +1447,19 @@
         <v>0.3699172569440493</v>
       </c>
       <c r="C42">
-        <v>0.4848842463792955</v>
+        <v>0.4849660309241185</v>
       </c>
       <c r="D42">
-        <v>0.07103440163874898</v>
+        <v>0.07394332707029655</v>
       </c>
       <c r="E42">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F42">
-        <v>-1.618469175258488</v>
+        <v>-1.555904752171815</v>
       </c>
       <c r="G42">
-        <v>0.058</v>
+        <v>0.067</v>
       </c>
       <c r="H42">
         <v>999</v>
@@ -1473,19 +1473,19 @@
         <v>0.5702115808054802</v>
       </c>
       <c r="C43">
-        <v>0.583810601125742</v>
+        <v>0.5804360724092563</v>
       </c>
       <c r="D43">
-        <v>0.1043500829730575</v>
+        <v>0.104270025121504</v>
       </c>
       <c r="E43">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="F43">
-        <v>-0.1303211260864355</v>
+        <v>-0.09805782238818612</v>
       </c>
       <c r="G43">
-        <v>0.438</v>
+        <v>0.463</v>
       </c>
       <c r="H43">
         <v>999</v>
@@ -1499,19 +1499,19 @@
         <v>0.3837112727058098</v>
       </c>
       <c r="C44">
-        <v>0.5483033994992123</v>
+        <v>0.546729616512177</v>
       </c>
       <c r="D44">
-        <v>0.09084348774684926</v>
+        <v>0.09137669781142654</v>
       </c>
       <c r="E44">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F44">
-        <v>-1.81182086768912</v>
+        <v>-1.784025333710209</v>
       </c>
       <c r="G44">
-        <v>0.042</v>
+        <v>0.037</v>
       </c>
       <c r="H44">
         <v>999</v>
@@ -1525,19 +1525,19 @@
         <v>0.5259595001403371</v>
       </c>
       <c r="C45">
-        <v>0.5770510728837733</v>
+        <v>0.5833846426605835</v>
       </c>
       <c r="D45">
-        <v>0.1012423061494157</v>
+        <v>0.1085297504444745</v>
       </c>
       <c r="E45">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F45">
-        <v>-0.5046464732641917</v>
+        <v>-0.5291189032045739</v>
       </c>
       <c r="G45">
-        <v>0.294</v>
+        <v>0.301</v>
       </c>
       <c r="H45">
         <v>999</v>
@@ -1551,19 +1551,19 @@
         <v>0.4698821825485012</v>
       </c>
       <c r="C46">
-        <v>0.5804203786509187</v>
+        <v>0.5753168213106742</v>
       </c>
       <c r="D46">
-        <v>0.1060569125647636</v>
+        <v>0.1085466168016951</v>
       </c>
       <c r="E46">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F46">
-        <v>-1.042253573381343</v>
+        <v>-0.9713304925458215</v>
       </c>
       <c r="G46">
-        <v>0.161</v>
+        <v>0.163</v>
       </c>
       <c r="H46">
         <v>999</v>
@@ -1577,19 +1577,19 @@
         <v>0.4536419411258047</v>
       </c>
       <c r="C47">
-        <v>0.634158741050328</v>
+        <v>0.6254299795769918</v>
       </c>
       <c r="D47">
-        <v>0.1190539590017877</v>
+        <v>0.1274804920199798</v>
       </c>
       <c r="E47">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F47">
-        <v>-1.516260369987467</v>
+        <v>-1.347563346588456</v>
       </c>
       <c r="G47">
-        <v>0.073</v>
+        <v>0.1</v>
       </c>
       <c r="H47">
         <v>999</v>
@@ -1603,19 +1603,19 @@
         <v>0.3326351911326394</v>
       </c>
       <c r="C48">
-        <v>0.5450525784809468</v>
+        <v>0.548854406266805</v>
       </c>
       <c r="D48">
-        <v>0.09046872431662384</v>
+        <v>0.09083166703992551</v>
       </c>
       <c r="E48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F48">
-        <v>-2.347964879054619</v>
+        <v>-2.380438696992376</v>
       </c>
       <c r="G48">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="H48">
         <v>999</v>
@@ -1629,19 +1629,19 @@
         <v>0.4632387925594931</v>
       </c>
       <c r="C49">
-        <v>0.6612195649485932</v>
+        <v>0.660674721427114</v>
       </c>
       <c r="D49">
-        <v>0.1379090270858806</v>
+        <v>0.1362139959991995</v>
       </c>
       <c r="E49">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F49">
-        <v>-1.435589653357578</v>
+        <v>-1.449454055138219</v>
       </c>
       <c r="G49">
-        <v>0.097</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H49">
         <v>999</v>
@@ -1655,19 +1655,19 @@
         <v>0.3082994585810522</v>
       </c>
       <c r="C50">
-        <v>0.5232104550370231</v>
+        <v>0.5237867515109934</v>
       </c>
       <c r="D50">
-        <v>0.0818375454507094</v>
+        <v>0.0830814143713352</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F50">
-        <v>-2.62606845393978</v>
+        <v>-2.593688306349882</v>
       </c>
       <c r="G50">
-        <v>0.003</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H50">
         <v>999</v>
@@ -1681,19 +1681,19 @@
         <v>0.3802586014883726</v>
       </c>
       <c r="C51">
-        <v>0.5090505697007734</v>
+        <v>0.5063404722509315</v>
       </c>
       <c r="D51">
-        <v>0.07919232173774782</v>
+        <v>0.0794727356746418</v>
       </c>
       <c r="E51">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F51">
-        <v>-1.626318882768793</v>
+        <v>-1.586479560471316</v>
       </c>
       <c r="G51">
-        <v>0.056</v>
+        <v>0.066</v>
       </c>
       <c r="H51">
         <v>999</v>
@@ -1707,19 +1707,19 @@
         <v>0.4535191089964585</v>
       </c>
       <c r="C52">
-        <v>0.5462515886244705</v>
+        <v>0.5519286751074218</v>
       </c>
       <c r="D52">
-        <v>0.09194478155472317</v>
+        <v>0.09130585577585351</v>
       </c>
       <c r="E52">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="F52">
-        <v>-1.008567077543385</v>
+        <v>-1.077801256827916</v>
       </c>
       <c r="G52">
-        <v>0.173</v>
+        <v>0.145</v>
       </c>
       <c r="H52">
         <v>999</v>
@@ -1733,19 +1733,19 @@
         <v>0.5540839435539364</v>
       </c>
       <c r="C53">
-        <v>0.5473456180626431</v>
+        <v>0.5453814397327258</v>
       </c>
       <c r="D53">
-        <v>0.09511082209289055</v>
+        <v>0.09143595181880274</v>
       </c>
       <c r="E53">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="F53">
-        <v>0.07084709545158013</v>
+        <v>0.09517595265433722</v>
       </c>
       <c r="G53">
-        <v>0.494</v>
+        <v>0.525</v>
       </c>
       <c r="H53">
         <v>999</v>
@@ -1759,19 +1759,19 @@
         <v>0.5101882790372162</v>
       </c>
       <c r="C54">
-        <v>0.6072287058312797</v>
+        <v>0.6040431947925542</v>
       </c>
       <c r="D54">
-        <v>0.1173344255592205</v>
+        <v>0.1158027035064453</v>
       </c>
       <c r="E54">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F54">
-        <v>-0.8270413932787848</v>
+        <v>-0.8104725789075751</v>
       </c>
       <c r="G54">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="H54">
         <v>999</v>
@@ -1785,19 +1785,19 @@
         <v>0.5106193043774137</v>
       </c>
       <c r="C55">
-        <v>0.4681129893548048</v>
+        <v>0.4713929931941894</v>
       </c>
       <c r="D55">
-        <v>0.06775702904027481</v>
+        <v>0.06736320969126301</v>
       </c>
       <c r="E55">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F55">
-        <v>0.6273343979905472</v>
+        <v>0.5823106019295266</v>
       </c>
       <c r="G55">
-        <v>0.728</v>
+        <v>0.723</v>
       </c>
       <c r="H55">
         <v>999</v>
@@ -1811,19 +1811,19 @@
         <v>0.581724771036437</v>
       </c>
       <c r="C56">
-        <v>0.5309548552293636</v>
+        <v>0.5329741683187628</v>
       </c>
       <c r="D56">
-        <v>0.08711840642108612</v>
+        <v>0.08625574053038501</v>
       </c>
       <c r="E56">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="F56">
-        <v>0.582769105780901</v>
+        <v>0.5651867622712147</v>
       </c>
       <c r="G56">
-        <v>0.71</v>
+        <v>0.715</v>
       </c>
       <c r="H56">
         <v>999</v>
@@ -1837,19 +1837,19 @@
         <v>0.5326554958396987</v>
       </c>
       <c r="C57">
-        <v>0.5010598898990626</v>
+        <v>0.4977998202390427</v>
       </c>
       <c r="D57">
-        <v>0.07632682544880398</v>
+        <v>0.07536897780880546</v>
       </c>
       <c r="E57">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="F57">
-        <v>0.4139515269350331</v>
+        <v>0.4624671398499957</v>
       </c>
       <c r="G57">
-        <v>0.66</v>
+        <v>0.678</v>
       </c>
       <c r="H57">
         <v>999</v>
@@ -1863,19 +1863,19 @@
         <v>0.5003929804568106</v>
       </c>
       <c r="C58">
-        <v>0.5183828302701424</v>
+        <v>0.5207470991515556</v>
       </c>
       <c r="D58">
-        <v>0.08478194390270546</v>
+        <v>0.08057786851331254</v>
       </c>
       <c r="E58">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F58">
-        <v>-0.2121896359674973</v>
+        <v>-0.2526018504868026</v>
       </c>
       <c r="G58">
-        <v>0.405</v>
+        <v>0.384</v>
       </c>
       <c r="H58">
         <v>999</v>
@@ -1889,19 +1889,19 @@
         <v>0.484450093255189</v>
       </c>
       <c r="C59">
-        <v>0.5579562217958669</v>
+        <v>0.5641157548290138</v>
       </c>
       <c r="D59">
-        <v>0.1007417091427106</v>
+        <v>0.09681458561231099</v>
       </c>
       <c r="E59">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F59">
-        <v>-0.7296494090302678</v>
+        <v>-0.8228683836218831</v>
       </c>
       <c r="G59">
-        <v>0.23</v>
+        <v>0.206</v>
       </c>
       <c r="H59">
         <v>999</v>
@@ -1915,19 +1915,19 @@
         <v>0.5575511531083917</v>
       </c>
       <c r="C60">
-        <v>0.5153444460726242</v>
+        <v>0.5204252539564292</v>
       </c>
       <c r="D60">
-        <v>0.07940189335799505</v>
+        <v>0.08060869018157038</v>
       </c>
       <c r="E60">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F60">
-        <v>0.5315579421446834</v>
+        <v>0.4605694382123892</v>
       </c>
       <c r="G60">
-        <v>0.678</v>
+        <v>0.67</v>
       </c>
       <c r="H60">
         <v>999</v>
@@ -1941,19 +1941,19 @@
         <v>0.7675381962409512</v>
       </c>
       <c r="C61">
-        <v>0.5988021206059294</v>
+        <v>0.5993002378613069</v>
       </c>
       <c r="D61">
-        <v>0.1122198908000026</v>
+        <v>0.1204106182631155</v>
       </c>
       <c r="E61">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="F61">
-        <v>1.50362003056786</v>
+        <v>1.397202014294277</v>
       </c>
       <c r="G61">
-        <v>0.9360000000000001</v>
+        <v>0.919</v>
       </c>
       <c r="H61">
         <v>999</v>
@@ -1967,19 +1967,19 @@
         <v>0.7895321279340882</v>
       </c>
       <c r="C62">
-        <v>0.6024694993674464</v>
+        <v>0.5990163056196289</v>
       </c>
       <c r="D62">
-        <v>0.110449760906916</v>
+        <v>0.116625167079629</v>
       </c>
       <c r="E62">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="F62">
-        <v>1.693644486241062</v>
+        <v>1.633573842465575</v>
       </c>
       <c r="G62">
-        <v>0.968</v>
+        <v>0.956</v>
       </c>
       <c r="H62">
         <v>999</v>
@@ -1993,19 +1993,19 @@
         <v>0.6232872265598162</v>
       </c>
       <c r="C63">
-        <v>0.53032836136474</v>
+        <v>0.5350072026365214</v>
       </c>
       <c r="D63">
-        <v>0.08513860507583747</v>
+        <v>0.08605833115422756</v>
       </c>
       <c r="E63">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F63">
-        <v>1.091853279863732</v>
+        <v>1.025816126565198</v>
       </c>
       <c r="G63">
-        <v>0.859</v>
+        <v>0.85</v>
       </c>
       <c r="H63">
         <v>999</v>
@@ -2019,19 +2019,19 @@
         <v>0.4673110274503937</v>
       </c>
       <c r="C64">
-        <v>0.5456955275655515</v>
+        <v>0.5459464238789274</v>
       </c>
       <c r="D64">
-        <v>0.09059006368146537</v>
+        <v>0.09267425279491744</v>
       </c>
       <c r="E64">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F64">
-        <v>-0.8652659787366419</v>
+        <v>-0.8485139513619733</v>
       </c>
       <c r="G64">
-        <v>0.203</v>
+        <v>0.198</v>
       </c>
       <c r="H64">
         <v>999</v>
@@ -2045,19 +2045,19 @@
         <v>0.567181570364536</v>
       </c>
       <c r="C65">
-        <v>0.509822995711238</v>
+        <v>0.5126440923312908</v>
       </c>
       <c r="D65">
-        <v>0.07463691195062731</v>
+        <v>0.08003898862600467</v>
       </c>
       <c r="E65">
-        <v>776</v>
+        <v>749</v>
       </c>
       <c r="F65">
-        <v>0.7685014445833578</v>
+        <v>0.6813863964233792</v>
       </c>
       <c r="G65">
-        <v>0.776</v>
+        <v>0.749</v>
       </c>
       <c r="H65">
         <v>999</v>
@@ -2071,19 +2071,19 @@
         <v>0.3672472763608757</v>
       </c>
       <c r="C66">
-        <v>0.6932894486076562</v>
+        <v>0.6974251978798105</v>
       </c>
       <c r="D66">
-        <v>0.156707678381006</v>
+        <v>0.1516485067053294</v>
       </c>
       <c r="E66">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F66">
-        <v>-2.080575601752383</v>
+        <v>-2.17725798092103</v>
       </c>
       <c r="G66">
-        <v>0.036</v>
+        <v>0.022</v>
       </c>
       <c r="H66">
         <v>999</v>
@@ -2097,19 +2097,19 @@
         <v>0.6339911821970102</v>
       </c>
       <c r="C67">
-        <v>0.5681759711255037</v>
+        <v>0.5658946239629734</v>
       </c>
       <c r="D67">
-        <v>0.09687561873373464</v>
+        <v>0.09882136211936066</v>
       </c>
       <c r="E67">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="F67">
-        <v>0.6793784848218778</v>
+        <v>0.6890874277950844</v>
       </c>
       <c r="G67">
-        <v>0.729</v>
+        <v>0.759</v>
       </c>
       <c r="H67">
         <v>999</v>
@@ -2123,19 +2123,19 @@
         <v>0.4863213808033272</v>
       </c>
       <c r="C68">
-        <v>0.5452201760540587</v>
+        <v>0.5481920705356851</v>
       </c>
       <c r="D68">
-        <v>0.09360800818822096</v>
+        <v>0.08928216305911814</v>
       </c>
       <c r="E68">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F68">
-        <v>-0.6292067996180581</v>
+        <v>-0.6929792873789385</v>
       </c>
       <c r="G68">
-        <v>0.253</v>
+        <v>0.245</v>
       </c>
       <c r="H68">
         <v>999</v>
@@ -2149,19 +2149,19 @@
         <v>0.5416466817651165</v>
       </c>
       <c r="C69">
-        <v>0.548807164378211</v>
+        <v>0.5479664333922302</v>
       </c>
       <c r="D69">
-        <v>0.08944780336055394</v>
+        <v>0.09160261725413781</v>
       </c>
       <c r="E69">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F69">
-        <v>-0.08005207891166807</v>
+        <v>-0.06899095043955365</v>
       </c>
       <c r="G69">
-        <v>0.468</v>
+        <v>0.472</v>
       </c>
       <c r="H69">
         <v>999</v>
@@ -2175,19 +2175,19 @@
         <v>0.6130075061811785</v>
       </c>
       <c r="C70">
-        <v>0.586519316882182</v>
+        <v>0.5804911272900667</v>
       </c>
       <c r="D70">
-        <v>0.1059624019137435</v>
+        <v>0.1037534430672949</v>
       </c>
       <c r="E70">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="F70">
-        <v>0.2499772449529665</v>
+        <v>0.3134004803100514</v>
       </c>
       <c r="G70">
-        <v>0.577</v>
+        <v>0.611</v>
       </c>
       <c r="H70">
         <v>999</v>
@@ -2201,19 +2201,19 @@
         <v>0.4178983571698885</v>
       </c>
       <c r="C71">
-        <v>0.46471321047305</v>
+        <v>0.4598354228388411</v>
       </c>
       <c r="D71">
-        <v>0.06291716563462467</v>
+        <v>0.06564219965372518</v>
       </c>
       <c r="E71">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="F71">
-        <v>-0.7440712376496227</v>
+        <v>-0.6388735583234318</v>
       </c>
       <c r="G71">
-        <v>0.225</v>
+        <v>0.267</v>
       </c>
       <c r="H71">
         <v>999</v>
@@ -2227,19 +2227,19 @@
         <v>0.4565078038218899</v>
       </c>
       <c r="C72">
-        <v>0.5366370626429987</v>
+        <v>0.5470941504984621</v>
       </c>
       <c r="D72">
-        <v>0.09215957359337167</v>
+        <v>0.09152174505436046</v>
       </c>
       <c r="E72">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="F72">
-        <v>-0.8694621263620074</v>
+        <v>-0.9897794958211008</v>
       </c>
       <c r="G72">
-        <v>0.196</v>
+        <v>0.151</v>
       </c>
       <c r="H72">
         <v>999</v>
@@ -2253,19 +2253,19 @@
         <v>0.4468026725584333</v>
       </c>
       <c r="C73">
-        <v>0.5064874035215712</v>
+        <v>0.5096583562409279</v>
       </c>
       <c r="D73">
-        <v>0.0756221300881047</v>
+        <v>0.07658166580772341</v>
       </c>
       <c r="E73">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F73">
-        <v>-0.7892495344101168</v>
+        <v>-0.820766733389019</v>
       </c>
       <c r="G73">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="H73">
         <v>999</v>
